--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\CDAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\CDAC\Project\Documents\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2398A1F-6B88-46A5-8E85-30353E5E6E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80A7338-A75B-4A36-8A2F-671D0ED98DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66BCAD8E-98E1-4DA3-873C-767F7BF5ABC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="78">
   <si>
     <t>owner_id(pk)</t>
   </si>
@@ -64,9 +64,6 @@
     <t>gender</t>
   </si>
   <si>
-    <t xml:space="preserve">gender </t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>phone_no</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>hostel_collges</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>clgid(fk)</t>
   </si>
   <si>
@@ -233,6 +224,51 @@
   </si>
   <si>
     <t>customer</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob </t>
+  </si>
+  <si>
+    <t>user_id(fk)</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+  </si>
+  <si>
+    <t>decimal(2,1)</t>
+  </si>
+  <si>
+    <t>blob</t>
   </si>
 </sst>
 </file>
@@ -269,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,8 +318,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -300,30 +342,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,330 +696,616 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B62480-498D-473D-9BDD-BAAA973C1258}">
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="N62" sqref="A62:N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="F8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B21" s="1"/>
+      <c r="C21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="35" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="10"/>
+      <c r="L35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P35" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B21" s="1"/>
-      <c r="C21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C27" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="Q35" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="35" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="4" t="s">
+      <c r="R35" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="L36" t="s">
+        <v>66</v>
+      </c>
+      <c r="M36" t="s">
+        <v>67</v>
+      </c>
+      <c r="N36" t="s">
+        <v>70</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>75</v>
+      </c>
+      <c r="R36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="43" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B41" s="1"/>
-      <c r="C41" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="43" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="B43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>51</v>
+      <c r="D43" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B47" s="6"/>
-      <c r="C47" s="9" t="s">
+      <c r="A47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="49" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A52" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="49" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="D53" s="10"/>
+      <c r="E53" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B61" s="1"/>
+      <c r="C61" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H62" s="10"/>
+      <c r="I62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L62" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C52" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B61" s="1"/>
-      <c r="C61" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>60</v>
+      <c r="M62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" t="s">
+        <v>63</v>
+      </c>
+      <c r="J63" t="s">
+        <v>70</v>
+      </c>
+      <c r="K63" t="s">
+        <v>70</v>
+      </c>
+      <c r="L63" t="s">
+        <v>66</v>
+      </c>
+      <c r="M63" t="s">
+        <v>75</v>
+      </c>
+      <c r="N63" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
@@ -969,24 +1313,39 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B68" s="1"/>
-      <c r="C68" s="5" t="s">
+      <c r="A68" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>51</v>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -994,74 +1353,165 @@
       <c r="B72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C73" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="A73" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+    <row r="74" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C78" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="80" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B84" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C78" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D78" s="5"/>
-    </row>
-    <row r="80" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="C84" s="8"/>
+    </row>
+    <row r="85" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C84" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="D85" s="10"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C52:E52"/>
+  <mergeCells count="54">
+    <mergeCell ref="C61:I61"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\CDAC\Project\Documents\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80A7338-A75B-4A36-8A2F-671D0ED98DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6113AF9-2039-495D-B6D6-4BC22EBBBC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66BCAD8E-98E1-4DA3-873C-767F7BF5ABC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="79">
   <si>
     <t>owner_id(pk)</t>
   </si>
@@ -268,7 +268,10 @@
     <t>decimal(2,1)</t>
   </si>
   <si>
-    <t>blob</t>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>varchar(90)</t>
   </si>
 </sst>
 </file>
@@ -366,22 +369,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,14 +701,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B62480-498D-473D-9BDD-BAAA973C1258}">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N62" sqref="A62:N62"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="5" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="10.21875" customWidth="1"/>
@@ -721,17 +724,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="8"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,10 +744,10 @@
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
@@ -762,10 +765,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="11"/>
+      <c r="A3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="10"/>
       <c r="C3" t="s">
         <v>64</v>
       </c>
@@ -775,10 +778,10 @@
       <c r="E3" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="10"/>
       <c r="H3" t="s">
         <v>63</v>
       </c>
@@ -796,13 +799,13 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -816,10 +819,10 @@
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="3" t="s">
         <v>5</v>
       </c>
@@ -837,10 +840,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="11"/>
+      <c r="A9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="10"/>
       <c r="C9" t="s">
         <v>64</v>
       </c>
@@ -850,10 +853,10 @@
       <c r="E9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="10"/>
       <c r="H9" t="s">
         <v>63</v>
       </c>
@@ -871,27 +874,27 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="3" t="s">
         <v>48</v>
       </c>
@@ -900,42 +903,42 @@
       <c r="A17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="11"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="10"/>
       <c r="H17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="3" t="s">
         <v>48</v>
       </c>
@@ -944,14 +947,14 @@
       <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
+      <c r="B23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="10"/>
       <c r="F23" t="s">
         <v>70</v>
       </c>
@@ -965,18 +968,18 @@
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="3" t="s">
         <v>49</v>
       </c>
@@ -985,25 +988,25 @@
       <c r="A29" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11" t="s">
+      <c r="B29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="10"/>
       <c r="F29" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="35" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="12"/>
+    </row>
+    <row r="35" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
@@ -1011,22 +1014,22 @@
       <c r="C35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10" t="s">
+      <c r="G35" s="11"/>
+      <c r="H35" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10" t="s">
+      <c r="I35" s="11"/>
+      <c r="J35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="10"/>
+      <c r="K35" s="11"/>
       <c r="L35" s="2" t="s">
         <v>23</v>
       </c>
@@ -1050,29 +1053,29 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="11"/>
+      <c r="A36" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="10"/>
       <c r="C36" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11" t="s">
+      <c r="D36" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" s="11"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="10"/>
       <c r="L36" t="s">
         <v>66</v>
       </c>
@@ -1096,14 +1099,14 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="43" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="43" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>25</v>
       </c>
@@ -1133,25 +1136,25 @@
     </row>
     <row r="46" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="49" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="49" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="10"/>
+      <c r="D49" s="11"/>
       <c r="E49" s="3" t="s">
         <v>48</v>
       </c>
@@ -1163,34 +1166,34 @@
       <c r="B50" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="11"/>
+      <c r="C50" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="10"/>
       <c r="E50" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="10"/>
+      <c r="D53" s="11"/>
       <c r="E53" s="3" t="s">
         <v>48</v>
       </c>
@@ -1202,10 +1205,10 @@
       <c r="B54" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="11"/>
+      <c r="C54" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="10"/>
       <c r="E54" t="s">
         <v>70</v>
       </c>
@@ -1213,37 +1216,37 @@
     <row r="60" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B61" s="1"/>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D62" s="10"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H62" s="10"/>
+      <c r="H62" s="11"/>
       <c r="I62" s="3" t="s">
         <v>39</v>
       </c>
@@ -1270,20 +1273,20 @@
       <c r="B63" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="11"/>
+      <c r="D63" s="10"/>
       <c r="E63" t="s">
         <v>66</v>
       </c>
       <c r="F63" t="s">
         <v>67</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H63" s="11"/>
+      <c r="G63" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="10"/>
       <c r="I63" t="s">
         <v>63</v>
       </c>
@@ -1313,14 +1316,14 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>10</v>
       </c>
@@ -1353,14 +1356,14 @@
       <c r="B72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>53</v>
       </c>
@@ -1389,12 +1392,12 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="80" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="9"/>
+    </row>
+    <row r="80" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>10</v>
       </c>
@@ -1417,32 +1420,32 @@
       <c r="B81" t="s">
         <v>66</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
       <c r="F81" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="8"/>
-    </row>
-    <row r="85" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D85" s="10"/>
+      <c r="D85" s="11"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -1451,24 +1454,39 @@
       <c r="B86" t="s">
         <v>63</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="11"/>
+      <c r="D86" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C61:I61"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="C49:D49"/>
@@ -1484,34 +1502,19 @@
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="H35:I35"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C61:I61"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="C81:E81"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\CDAC\Project\Documents\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6113AF9-2039-495D-B6D6-4BC22EBBBC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2126CDF2-8DDA-41A5-AD2B-BA416F2694F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66BCAD8E-98E1-4DA3-873C-767F7BF5ABC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="84">
   <si>
     <t>owner_id(pk)</t>
   </si>
@@ -64,15 +64,9 @@
     <t>gender</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
     <t>id(pk)</t>
   </si>
   <si>
-    <t>user_name</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -112,24 +106,6 @@
     <t>hostel_id(fk)</t>
   </si>
   <si>
-    <t xml:space="preserve"> clgid(pk)</t>
-  </si>
-  <si>
-    <t>clgname</t>
-  </si>
-  <si>
-    <t>landmark</t>
-  </si>
-  <si>
-    <t>colleges</t>
-  </si>
-  <si>
-    <t>hostel_collges</t>
-  </si>
-  <si>
-    <t>clgid(fk)</t>
-  </si>
-  <si>
     <t>hostel_images</t>
   </si>
   <si>
@@ -169,15 +145,6 @@
     <t>available_rooms</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> flat_colleges</t>
-  </si>
-  <si>
-    <t>clg_id(fk)</t>
-  </si>
-  <si>
     <t>flat_images</t>
   </si>
   <si>
@@ -253,25 +220,73 @@
     <t xml:space="preserve">dob </t>
   </si>
   <si>
-    <t>user_id(fk)</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
-    <t>varchar(150)</t>
-  </si>
-  <si>
     <t>varchar(12)</t>
   </si>
   <si>
-    <t>decimal(2,1)</t>
-  </si>
-  <si>
     <t>varchar(100)</t>
   </si>
   <si>
     <t>varchar(90)</t>
+  </si>
+  <si>
+    <t>flat_documents</t>
+  </si>
+  <si>
+    <t>documents</t>
+  </si>
+  <si>
+    <t>Hostel_documents</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>docuements</t>
+  </si>
+  <si>
+    <t>singlebed</t>
+  </si>
+  <si>
+    <t>double bed</t>
+  </si>
+  <si>
+    <t>HOSTEL REVIEW</t>
+  </si>
+  <si>
+    <t>hostelid(fk)</t>
+  </si>
+  <si>
+    <t>Customer_id</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>decima(2,1)</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>FLAT REVIEW</t>
+  </si>
+  <si>
+    <t>flatid(fk)</t>
+  </si>
+  <si>
+    <t>FLAT Address</t>
+  </si>
+  <si>
+    <t>HOSTEL Address</t>
+  </si>
+  <si>
+    <t>no_of_months</t>
   </si>
 </sst>
 </file>
@@ -358,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -373,18 +388,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B62480-498D-473D-9BDD-BAAA973C1258}">
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,7 +732,7 @@
     <col min="9" max="9" width="9.77734375" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" customWidth="1"/>
     <col min="11" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" customWidth="1"/>
     <col min="14" max="14" width="11.44140625" customWidth="1"/>
     <col min="16" max="16" width="10.88671875" customWidth="1"/>
@@ -725,16 +741,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F1" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
@@ -744,10 +760,10 @@
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
@@ -758,49 +774,49 @@
         <v>7</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="10"/>
+      <c r="A3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="11"/>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="11"/>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F7" s="9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -814,15 +830,15 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="3" t="s">
         <v>5</v>
       </c>
@@ -833,311 +849,273 @@
         <v>7</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="10"/>
+      <c r="A9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="11"/>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="11"/>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C15" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12"/>
       <c r="F22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C27" s="4" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C27" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="11"/>
       <c r="F29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C33" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="35" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="35" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11" t="s">
+      <c r="K35" s="12"/>
+      <c r="L35" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="11"/>
-      <c r="L35" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="R35" s="3"/>
+      <c r="T35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="11"/>
       <c r="C36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="L36" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" t="s">
+        <v>59</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>62</v>
+      </c>
+      <c r="T36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A41" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" s="10"/>
-      <c r="L36" t="s">
-        <v>66</v>
-      </c>
-      <c r="M36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N36" t="s">
-        <v>70</v>
-      </c>
-      <c r="O36" t="s">
-        <v>63</v>
-      </c>
-      <c r="P36" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>75</v>
-      </c>
-      <c r="R36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A41" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="43" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:21" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A47" s="9" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1146,37 +1124,43 @@
     </row>
     <row r="49" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="12"/>
       <c r="E49" s="3" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="11"/>
       <c r="E50" t="s">
-        <v>70</v>
+        <v>78</v>
+      </c>
+      <c r="F50" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A52" s="9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -1185,39 +1169,39 @@
     </row>
     <row r="53" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="12"/>
       <c r="E53" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="11"/>
       <c r="E54" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B61" s="1"/>
       <c r="C61" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -1228,265 +1212,384 @@
     </row>
     <row r="62" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="12"/>
       <c r="E62" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" s="12"/>
+      <c r="I62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M62" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G62" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="N62" s="3" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="11"/>
       <c r="E63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" t="s">
+        <v>52</v>
+      </c>
+      <c r="J63" t="s">
+        <v>59</v>
+      </c>
+      <c r="K63" t="s">
+        <v>59</v>
+      </c>
+      <c r="L63" t="s">
+        <v>56</v>
+      </c>
+      <c r="M63" t="s">
+        <v>62</v>
+      </c>
+      <c r="N63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A67" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F63" t="s">
-        <v>67</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H63" s="10"/>
-      <c r="I63" t="s">
-        <v>63</v>
-      </c>
-      <c r="J63" t="s">
-        <v>70</v>
-      </c>
-      <c r="K63" t="s">
-        <v>70</v>
-      </c>
-      <c r="L63" t="s">
-        <v>66</v>
-      </c>
-      <c r="M63" t="s">
-        <v>75</v>
-      </c>
-      <c r="N63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A68" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-    </row>
-    <row r="69" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A73" s="9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" t="s">
         <v>63</v>
       </c>
-      <c r="B75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75" t="s">
-        <v>77</v>
-      </c>
       <c r="D75" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C78" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D78" s="9"/>
     </row>
-    <row r="80" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
       <c r="F81" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B84" s="9" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D85" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" s="12"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" s="11"/>
+    </row>
+    <row r="90" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B90" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="10"/>
+      <c r="C90" s="9"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A97" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D99" s="12"/>
+      <c r="E99" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D100" s="11"/>
+      <c r="E100" t="s">
+        <v>78</v>
+      </c>
+      <c r="F100" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B105" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="8"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E108" s="11"/>
+    </row>
+    <row r="114" spans="3:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C114" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F116" s="12"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>52</v>
+      </c>
+      <c r="D117" t="s">
+        <v>52</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F117" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
+  <mergeCells count="65">
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C61:I61"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="A67:B67"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="C49:D49"/>
@@ -1503,18 +1606,32 @@
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C61:I61"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
